--- a/Tarea1/EstudioHyperA.xlsx
+++ b/Tarea1/EstudioHyperA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave4\Documents\TEC\I Semestre 2023\AI\ProyectosIA\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04294AF4-3819-470C-B8A6-87459EFA7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1002449-4D53-4B5B-B2D3-F62F065ADDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>l_rate</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>#neuronas</t>
+  </si>
+  <si>
+    <t>batch size</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -369,8 +372,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.03</v>
       </c>
@@ -381,7 +387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -392,7 +398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.1</v>
       </c>
